--- a/MerchantPersona.xlsx
+++ b/MerchantPersona.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahou.shen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahou.shen/Desktop/personas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7634D1E-7ACB-4247-8F21-131868CCF806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A072C14-04D9-B04C-8D86-D5DFE6EE8D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Timestamp</t>
   </si>
@@ -67,9 +69,6 @@
     <t>Marketing Strategy</t>
   </si>
   <si>
-    <t>Operational Strategy</t>
-  </si>
-  <si>
     <t>Delivery Time</t>
   </si>
   <si>
@@ -157,10 +156,6 @@
     <t>11/5/2019 14:30:35</t>
   </si>
   <si>
-    <t>Primary Persona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Distributor Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplemental Persona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer Personas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,87 +292,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Silent customers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Savvy customers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Driven &gt; Intuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data &gt; Intuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success Indicators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA selected criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business Size on Rakuten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Sales Per Transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Above 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium/ Large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less automated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rather conservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data-driven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Automation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Persona 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Persona 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ask less questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complain less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Couponers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Less price sensitive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attributes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Driven &gt; Intuition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data &gt; Intuition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success Indicators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA selected criteria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business Size on Rakuten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Sales Per Transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Above 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium/ Large</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Less automated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rather conservative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data-driven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation Automation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
+    <t>Decision Making Approach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -609,48 +620,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -697,19 +671,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,9 +685,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -941,9 +911,9 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -983,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -994,31 +964,31 @@
       <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>95</v>
+      <c r="O1" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>4.53</v>
@@ -1071,13 +1041,13 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="3">
         <v>4.79</v>
@@ -1130,13 +1100,13 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>4.75</v>
@@ -1189,13 +1159,13 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>4.38</v>
@@ -1248,13 +1218,13 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="3">
         <v>4.84</v>
@@ -1307,13 +1277,13 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>4.91</v>
@@ -1366,13 +1336,13 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>4.66</v>
@@ -1425,13 +1395,13 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
         <v>4.92</v>
@@ -1484,13 +1454,13 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3">
         <v>4.91</v>
@@ -1543,13 +1513,13 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>4.92</v>
@@ -1624,7 +1594,7 @@
     <row r="13" spans="1:19" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ref="D13:J14" si="0">_xlfn.MODE.MULT(D2:D11)</f>
@@ -1694,7 +1664,7 @@
     <row r="14" spans="1:19" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1763,7 +1733,7 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
         <f>AVERAGE(D2:D11)</f>
@@ -1832,7 +1802,7 @@
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="12">
         <f>MEDIAN(D2:D11)</f>
@@ -1937,10 +1907,10 @@
         <v>9</v>
       </c>
       <c r="K19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>30</v>
       </c>
       <c r="M19" s="33" t="s">
         <v>10</v>
@@ -1949,69 +1919,69 @@
         <v>11</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
     </row>
     <row r="20" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="L20" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2019,7 +1989,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -2033,7 +2003,7 @@
     <row r="22" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="19"/>
       <c r="E22" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2041,7 +2011,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -2059,10 +2029,10 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -2081,10 +2051,10 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -2102,13 +2072,13 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -2124,13 +2094,13 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
@@ -2149,12 +2119,12 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -2171,12 +2141,12 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
@@ -2193,11 +2163,11 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="17"/>
@@ -2215,11 +2185,11 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
@@ -2239,10 +2209,10 @@
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
       <c r="M31" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
@@ -2261,10 +2231,10 @@
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
       <c r="M32" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N32" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -2280,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7648F-5D69-AD42-A2C8-FCEA6BA5955E}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2298,257 +2268,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>69</v>
+      <c r="B1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>75</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>67</v>
+      <c r="A4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>77</v>
+      <c r="B5" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>63</v>
+      <c r="B6" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="B14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>59</v>
+      <c r="B15" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C20" s="46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>80</v>
+      <c r="A21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="48"/>
+      <c r="B22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="41"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="49"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
-        <v>78</v>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
